--- a/src/Excels/new.xlsx
+++ b/src/Excels/new.xlsx
@@ -253,7 +253,7 @@
     <t>Fait à  TAMANRASSET         LE                  /          /2023</t>
   </si>
   <si>
-    <t>PLS110/81/01/2023/02/11/01/2023</t>
+    <t>CENT VINGT-TROIS MILLE QUATRE CENT CINQUANTE-SIX</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="25" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -1274,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
